--- a/results/mp/deberta/corona/confidence/126/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-0.2/avg_0.004_scores.xlsx
@@ -85,13 +85,13 @@
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
@@ -992,25 +992,25 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6796536796536796</v>
+        <v>0.67</v>
       </c>
       <c r="L15">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="M15">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1018,25 +1018,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.67</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L16">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N16">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1044,13 +1044,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6595744680851063</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1200,25 +1200,25 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5487804878048781</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L23">
         <v>180</v>
       </c>
       <c r="M23">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="10:17">
